--- a/old_database/crypto/fastqFiles/fastq_2496.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_2496.xlsx
@@ -37,7 +37,7 @@
     <t>10.03.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2496</t>
   </si>
   <si>
     <t>sequence/run_2496_samples/2496_Brent_46_GTAC50_CAATATC_S48_R1_001.fastq.gz</t>
